--- a/Result tables.xlsx
+++ b/Result tables.xlsx
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,10 +760,10 @@
       <c r="G6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="5" t="s">
